--- a/excel/muscle_measurement.xlsx
+++ b/excel/muscle_measurement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Muscles/Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Nov 3(2025)</t>
   </si>
 </sst>
 </file>
@@ -454,12 +457,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -508,8 +511,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4">
-        <v>45599</v>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>16</v>
